--- a/Gestion/Output/EtatStock.xlsx
+++ b/Gestion/Output/EtatStock.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="898" count="1813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="888" count="1797">
   <si>
     <t>Id</t>
   </si>
@@ -171,504 +171,507 @@
     <t>92</t>
   </si>
   <si>
+    <t>18/01/2021 00:00:00</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pickles - Gherkins  </t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>31/08/2024 00:00:00</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cauliflower         </t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>01/06/2023 00:00:00</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beets - Pickled     </t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>22/08/2019 00:00:00</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sauce - Rosee       </t>
+  </si>
+  <si>
+    <t>12/05/2020 00:00:00</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compound - Pear     </t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>08/10/2022 00:00:00</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madeira             </t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>07/11/2024 00:00:00</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bread - Bistro Sour </t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>14/06/2023 00:00:00</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Praline Paste       </t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>13/06/2021 00:00:00</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corn - On The Cob   </t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>01/07/2023 00:00:00</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprouts - Bean      </t>
+  </si>
+  <si>
+    <t>29/05/2022 00:00:00</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chicken - Base      </t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>28/07/2020 00:00:00</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chervil - Fresh     </t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>19/03/2023 00:00:00</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flour Dark Rye      </t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avocado             </t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>13/08/2023 00:00:00</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prunes - Pitted     </t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>08/06/2024 00:00:00</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rice Paper          </t>
+  </si>
+  <si>
+    <t>27/03/2020 00:00:00</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiwano              </t>
+  </si>
+  <si>
+    <t>29/01/2019 00:00:00</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sugar - Cubes       </t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>12/05/2024 00:00:00</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Papadam             </t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>18/06/2022 00:00:00</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ginger - Fresh      </t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>08/07/2024 00:00:00</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nectarines          </t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>20/09/2020 00:00:00</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poppy Seed          </t>
+  </si>
+  <si>
+    <t>30/11/2020 00:00:00</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>Bread - French Stick</t>
+  </si>
+  <si>
+    <t>12/03/2019 00:00:00</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foam Tray S2        </t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>27/02/2022 00:00:00</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salt - Celery       </t>
+  </si>
+  <si>
+    <t>23/03/2021 00:00:00</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banana              </t>
+  </si>
+  <si>
+    <t>30/07/2019 00:00:00</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Squash - Pepper     </t>
+  </si>
+  <si>
+    <t>18/07/2020 00:00:00</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>Longos - Lasagna Veg</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>30/08/2021 00:00:00</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pasta - Angel Hair  </t>
+  </si>
+  <si>
+    <t>03/02/2022 00:00:00</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dates               </t>
+  </si>
+  <si>
+    <t>14/04/2024 00:00:00</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brandy - Bar        </t>
+  </si>
+  <si>
+    <t>19/07/2022 00:00:00</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cream - 35%         </t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>07/07/2021 00:00:00</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beans - Green       </t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>16/07/2023 00:00:00</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doilies - 12, Paper </t>
+  </si>
+  <si>
+    <t>09/12/2021 00:00:00</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>Puree - Blackcurrant</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>13/09/2022 00:00:00</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomatoes - Grape    </t>
+  </si>
+  <si>
+    <t>14/06/2024 00:00:00</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vinegar - Sherry    </t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>21/08/2022 00:00:00</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wine - Sake         </t>
+  </si>
+  <si>
+    <t>01/04/2022 00:00:00</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beef - Flank Steak  </t>
+  </si>
+  <si>
+    <t>17/03/2023 00:00:00</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cheese - Asiago     </t>
+  </si>
+  <si>
     <t>17/01/2021 00:00:00</t>
   </si>
   <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pickles - Gherkins  </t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>31/08/2024 00:00:00</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cauliflower         </t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>01/06/2023 00:00:00</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beets - Pickled     </t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>22/08/2019 00:00:00</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sauce - Rosee       </t>
-  </si>
-  <si>
-    <t>12/05/2020 00:00:00</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compound - Pear     </t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>08/10/2022 00:00:00</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madeira             </t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>07/11/2024 00:00:00</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bread - Bistro Sour </t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>14/06/2023 00:00:00</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Praline Paste       </t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>13/06/2021 00:00:00</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corn - On The Cob   </t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>01/07/2023 00:00:00</t>
-  </si>
-  <si>
-    <t>149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprouts - Bean      </t>
-  </si>
-  <si>
-    <t>29/05/2022 00:00:00</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chicken - Base      </t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>28/07/2020 00:00:00</t>
-  </si>
-  <si>
-    <t>156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chervil - Fresh     </t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>19/03/2023 00:00:00</t>
-  </si>
-  <si>
-    <t>159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flour Dark Rye      </t>
-  </si>
-  <si>
-    <t>161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avocado             </t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>13/08/2023 00:00:00</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prunes - Pitted     </t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>08/06/2024 00:00:00</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rice Paper          </t>
-  </si>
-  <si>
-    <t>27/03/2020 00:00:00</t>
-  </si>
-  <si>
-    <t>166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiwano              </t>
-  </si>
-  <si>
-    <t>29/01/2019 00:00:00</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sugar - Cubes       </t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>12/05/2024 00:00:00</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Papadam             </t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>18/06/2022 00:00:00</t>
-  </si>
-  <si>
-    <t>174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ginger - Fresh      </t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>08/07/2024 00:00:00</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nectarines          </t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>20/09/2020 00:00:00</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poppy Seed          </t>
-  </si>
-  <si>
-    <t>30/11/2020 00:00:00</t>
-  </si>
-  <si>
-    <t>177</t>
-  </si>
-  <si>
-    <t>Bread - French Stick</t>
-  </si>
-  <si>
-    <t>12/03/2019 00:00:00</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Foam Tray S2        </t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>27/02/2022 00:00:00</t>
-  </si>
-  <si>
-    <t>179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salt - Celery       </t>
-  </si>
-  <si>
-    <t>23/03/2021 00:00:00</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Banana              </t>
-  </si>
-  <si>
-    <t>30/07/2019 00:00:00</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Squash - Pepper     </t>
-  </si>
-  <si>
-    <t>18/07/2020 00:00:00</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>186</t>
-  </si>
-  <si>
-    <t>Longos - Lasagna Veg</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>30/08/2021 00:00:00</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pasta - Angel Hair  </t>
-  </si>
-  <si>
-    <t>03/02/2022 00:00:00</t>
-  </si>
-  <si>
-    <t>189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dates               </t>
-  </si>
-  <si>
-    <t>14/04/2024 00:00:00</t>
-  </si>
-  <si>
-    <t>191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brandy - Bar        </t>
-  </si>
-  <si>
-    <t>19/07/2022 00:00:00</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cream - 35%         </t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>07/07/2021 00:00:00</t>
-  </si>
-  <si>
-    <t>193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beans - Green       </t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>16/07/2023 00:00:00</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doilies - 12, Paper </t>
-  </si>
-  <si>
-    <t>09/12/2021 00:00:00</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>Puree - Blackcurrant</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>13/09/2022 00:00:00</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tomatoes - Grape    </t>
-  </si>
-  <si>
-    <t>14/06/2024 00:00:00</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vinegar - Sherry    </t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>21/08/2022 00:00:00</t>
-  </si>
-  <si>
-    <t>204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wine - Sake         </t>
-  </si>
-  <si>
-    <t>01/04/2022 00:00:00</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beef - Flank Steak  </t>
-  </si>
-  <si>
-    <t>17/03/2023 00:00:00</t>
-  </si>
-  <si>
-    <t>209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cheese - Asiago     </t>
-  </si>
-  <si>
     <t>67</t>
   </si>
   <si>
@@ -1239,988 +1242,955 @@
     <t>84</t>
   </si>
   <si>
+    <t>Adresse</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jaquenetta Pryor    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 Meadow Vale Point           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">jpryor1@cbc.ca      </t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hubert Rothert      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 Kenwood Lane                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hrothert3@salon.com </t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ricki Aps           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">54345 Aberg Lane              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">raps7@4shared.com   </t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liza Dargavel       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6911 Fuller Alley             </t>
+  </si>
+  <si>
+    <t>ldargavel8@blogs.com</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bethany Bonelle     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">763 6th Terrace               </t>
+  </si>
+  <si>
+    <t>bbonelle9@zimbio.com</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trisha Dewdeny      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">47377 Briar Crest Avenue      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tdewdenyc@bbb.org   </t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ermin O'Brien       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">844 Browning Center           </t>
+  </si>
+  <si>
+    <t>eobriend@walmart.com</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aggi Brendeke       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 Ridgeway Plaza             </t>
+  </si>
+  <si>
+    <t>abrendekee@patch.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zulema Nann         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">40816 Walton Park             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">znannh@go.com       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Therine Geraudel    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">29402 Towne Point             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tgeraudeli@umn.edu  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shaun Jedras        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">38673 Crescent Oaks Junction  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sjedrasj@ebay.co.uk </t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kissie Gillie       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">97 Pleasure Circle            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kgilliem@chron.com  </t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valma Longhi        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7619 Aberg Circle             </t>
+  </si>
+  <si>
+    <t>vlonghin@cbsnews.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Odille Gue          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">74168 Moland Court            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ogueo@nsw.gov.au    </t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rutter Ewell        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0539 Larry Plaza              </t>
+  </si>
+  <si>
+    <t>rewellt@amazon.co.uk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corri Ead           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 Grayhawk Place              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ceadv@devhub.com    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cheryl Humbey       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">09609 Orin Trail              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">chumbeyx@163.com    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slade Hyett         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">81 Shopko Road                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">shyett12@wp.com     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rafaelita Beri      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">744 Evergreen Point           </t>
+  </si>
+  <si>
+    <t>rberi16@buzzfeed.com</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annabelle Currom    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1368 Welch Avenue             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">acurrom17@mysql.com </t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abbey Simkiss       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">38054 Shasta Court            </t>
+  </si>
+  <si>
+    <t>asimkiss1f@nymag.com</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gavan Bye           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">323 Jay Junction              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gbye1g@yahoo.com    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fonz Whaley         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7575 Sullivan Crossing        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fwhaley1i@npr.org   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isahella Beere      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">44 Saint Paul Road            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ibeere1j@uiuc.edu   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jakie Seston        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">74 Mandrake Avenue            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">jseston1m@cnbc.com  </t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cindelyn Gibbings   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 Hoepker Alley               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cgibbings1q@ovh.net </t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vernor Dani         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">63 Sheridan Drive             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vdani1s@yahoo.com   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucilia Starrs      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4040 Magdeline Road           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">lstarrs1t@patch.com </t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Milton Canton       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16658 Ramsey Avenue           </t>
+  </si>
+  <si>
+    <t>mcanton1y@joomla.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norri Gonneau       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">72 Jenifer Road               </t>
+  </si>
+  <si>
+    <t>ngonneau20@sogou.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christyna Labbey    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">36 Havey Alley                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">clabbey21@diigo.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Addie Jerson        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 Loftsgordon Avenue          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ajerson27@youku.com </t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kristopher Juett    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">683 Linden Road               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kjuett2e@patch.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marvin De Michele   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">44079 Arizona Hill            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mde2f@goo.gl        </t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hayyim Wendover     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">05 Mandrake Court             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hwendover2h@nyu.edu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elita Moens         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4123 Nancy Park               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">emoens2n@imgur.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alfred Trouel       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">992 Lakewood Avenue           </t>
+  </si>
+  <si>
+    <t>atrouel2r@flickr.com</t>
+  </si>
+  <si>
+    <t>Produit</t>
+  </si>
+  <si>
+    <t>Fournisseur</t>
+  </si>
+  <si>
+    <t>Date de commande</t>
+  </si>
+  <si>
+    <t>Date de livraison</t>
+  </si>
+  <si>
+    <t>Quantite</t>
+  </si>
+  <si>
+    <t>Date de vente</t>
+  </si>
+  <si>
+    <t>18/12/2020 00:00:00</t>
+  </si>
+  <si>
+    <t>02/10/2020 00:00:00</t>
+  </si>
+  <si>
+    <t>18/04/2020 00:00:00</t>
+  </si>
+  <si>
+    <t>17/11/2019 00:00:00</t>
+  </si>
+  <si>
+    <t>19/12/2018 00:00:00</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>03/06/2020 00:00:00</t>
+  </si>
+  <si>
+    <t>03/11/2018 00:00:00</t>
+  </si>
+  <si>
+    <t>19/08/2018 00:00:00</t>
+  </si>
+  <si>
+    <t>05/09/2020 00:00:00</t>
+  </si>
+  <si>
+    <t>26/03/2018 00:00:00</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>10/11/2018 00:00:00</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>09/07/2020 00:00:00</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>18/12/2018 00:00:00</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>10/09/2018 00:00:00</t>
+  </si>
+  <si>
+    <t>14/03/2018 00:00:00</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>24/06/2018 00:00:00</t>
+  </si>
+  <si>
+    <t>26/12/2018 00:00:00</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>25/10/2020 00:00:00</t>
+  </si>
+  <si>
+    <t>14/09/2018 00:00:00</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>03/04/2019 00:00:00</t>
+  </si>
+  <si>
+    <t>13/03/2019 00:00:00</t>
+  </si>
+  <si>
+    <t>02/06/2020 00:00:00</t>
+  </si>
+  <si>
+    <t>10/06/2020 00:00:00</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>25/03/2020 00:00:00</t>
+  </si>
+  <si>
+    <t>18/07/2019 00:00:00</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>10/01/2021 00:00:00</t>
+  </si>
+  <si>
+    <t>06/11/2020 00:00:00</t>
+  </si>
+  <si>
+    <t>04/09/2020 00:00:00</t>
+  </si>
+  <si>
+    <t>15/09/2019 00:00:00</t>
+  </si>
+  <si>
+    <t>26/06/2020 00:00:00</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>21/05/2019 00:00:00</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>18/11/2020 00:00:00</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>15/05/2019 00:00:00</t>
+  </si>
+  <si>
+    <t>01/10/2018 00:00:00</t>
+  </si>
+  <si>
+    <t>01/06/2018 00:00:00</t>
+  </si>
+  <si>
+    <t>18/09/2020 00:00:00</t>
+  </si>
+  <si>
+    <t>08/06/2018 00:00:00</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>23/07/2018 00:00:00</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>26/10/2018 00:00:00</t>
+  </si>
+  <si>
+    <t>23/12/2020 00:00:00</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>10/11/2019 00:00:00</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>26/12/2020 00:00:00</t>
+  </si>
+  <si>
+    <t>22/07/2020 00:00:00</t>
+  </si>
+  <si>
+    <t>322</t>
+  </si>
+  <si>
+    <t>16/05/2018 00:00:00</t>
+  </si>
+  <si>
+    <t>15/01/2020 00:00:00</t>
+  </si>
+  <si>
     <t>324</t>
   </si>
   <si>
-    <t>GPU</t>
-  </si>
-  <si>
-    <t>5000</t>
-  </si>
-  <si>
-    <t>02/12/3000 00:00:00</t>
-  </si>
-  <si>
-    <t>disponible</t>
-  </si>
-  <si>
-    <t>Adresse</t>
-  </si>
-  <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jaquenetta Pryor    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 Meadow Vale Point           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">jpryor1@cbc.ca      </t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hubert Rothert      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 Kenwood Lane                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">hrothert3@salon.com </t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ricki Aps           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">54345 Aberg Lane              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">raps7@4shared.com   </t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liza Dargavel       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6911 Fuller Alley             </t>
-  </si>
-  <si>
-    <t>ldargavel8@blogs.com</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bethany Bonelle     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">763 6th Terrace               </t>
-  </si>
-  <si>
-    <t>bbonelle9@zimbio.com</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trisha Dewdeny      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">47377 Briar Crest Avenue      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">tdewdenyc@bbb.org   </t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ermin O'Brien       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">844 Browning Center           </t>
-  </si>
-  <si>
-    <t>eobriend@walmart.com</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aggi Brendeke       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 Ridgeway Plaza             </t>
-  </si>
-  <si>
-    <t>abrendekee@patch.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zulema Nann         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">40816 Walton Park             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">znannh@go.com       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Therine Geraudel    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">29402 Towne Point             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">tgeraudeli@umn.edu  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shaun Jedras        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">38673 Crescent Oaks Junction  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">sjedrasj@ebay.co.uk </t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kissie Gillie       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">97 Pleasure Circle            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">kgilliem@chron.com  </t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valma Longhi        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7619 Aberg Circle             </t>
-  </si>
-  <si>
-    <t>vlonghin@cbsnews.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Odille Gue          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">74168 Moland Court            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ogueo@nsw.gov.au    </t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rutter Ewell        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0539 Larry Plaza              </t>
-  </si>
-  <si>
-    <t>rewellt@amazon.co.uk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corri Ead           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 Grayhawk Place              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ceadv@devhub.com    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cheryl Humbey       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">09609 Orin Trail              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">chumbeyx@163.com    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slade Hyett         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">81 Shopko Road                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">shyett12@wp.com     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rafaelita Beri      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">744 Evergreen Point           </t>
-  </si>
-  <si>
-    <t>rberi16@buzzfeed.com</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Annabelle Currom    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1368 Welch Avenue             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">acurrom17@mysql.com </t>
-  </si>
-  <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abbey Simkiss       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">38054 Shasta Court            </t>
-  </si>
-  <si>
-    <t>asimkiss1f@nymag.com</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gavan Bye           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">323 Jay Junction              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">gbye1g@yahoo.com    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fonz Whaley         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7575 Sullivan Crossing        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">fwhaley1i@npr.org   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isahella Beere      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">44 Saint Paul Road            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ibeere1j@uiuc.edu   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jakie Seston        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">74 Mandrake Avenue            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">jseston1m@cnbc.com  </t>
-  </si>
-  <si>
-    <t>163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cindelyn Gibbings   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 Hoepker Alley               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">cgibbings1q@ovh.net </t>
-  </si>
-  <si>
-    <t>165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vernor Dani         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">63 Sheridan Drive             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">vdani1s@yahoo.com   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lucilia Starrs      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4040 Magdeline Road           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">lstarrs1t@patch.com </t>
-  </si>
-  <si>
-    <t>171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Milton Canton       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">16658 Ramsey Avenue           </t>
-  </si>
-  <si>
-    <t>mcanton1y@joomla.org</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norri Gonneau       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">72 Jenifer Road               </t>
-  </si>
-  <si>
-    <t>ngonneau20@sogou.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Christyna Labbey    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">36 Havey Alley                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">clabbey21@diigo.com </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Addie Jerson        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 Loftsgordon Avenue          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ajerson27@youku.com </t>
-  </si>
-  <si>
-    <t>187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kristopher Juett    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">683 Linden Road               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">kjuett2e@patch.com  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marvin De Michele   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">44079 Arizona Hill            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">mde2f@goo.gl        </t>
-  </si>
-  <si>
-    <t>190</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hayyim Wendover     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">05 Mandrake Court             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">hwendover2h@nyu.edu </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elita Moens         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4123 Nancy Park               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">emoens2n@imgur.com  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alfred Trouel       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">992 Lakewood Avenue           </t>
-  </si>
-  <si>
-    <t>atrouel2r@flickr.com</t>
-  </si>
-  <si>
-    <t>201</t>
-  </si>
-  <si>
-    <t>fourniss2</t>
-  </si>
-  <si>
-    <t>addre2</t>
-  </si>
-  <si>
-    <t>cont@fourniss2.com</t>
-  </si>
-  <si>
-    <t>Produit</t>
-  </si>
-  <si>
-    <t>Fournisseur</t>
-  </si>
-  <si>
-    <t>Date de commande</t>
-  </si>
-  <si>
-    <t>Date de livraison</t>
-  </si>
-  <si>
-    <t>391</t>
-  </si>
-  <si>
-    <t>17/01/2021 23:07:41</t>
-  </si>
-  <si>
-    <t>31/01/2021 23:59:59</t>
-  </si>
-  <si>
-    <t>Quantite</t>
-  </si>
-  <si>
-    <t>Date de vente</t>
+    <t>78</t>
+  </si>
+  <si>
+    <t>12/12/2020 00:00:00</t>
+  </si>
+  <si>
+    <t>325</t>
+  </si>
+  <si>
+    <t>16/02/2018 00:00:00</t>
+  </si>
+  <si>
+    <t>326</t>
+  </si>
+  <si>
+    <t>08/04/2018 00:00:00</t>
+  </si>
+  <si>
+    <t>329</t>
+  </si>
+  <si>
+    <t>30/09/2018 00:00:00</t>
+  </si>
+  <si>
+    <t>332</t>
+  </si>
+  <si>
+    <t>25/04/2019 00:00:00</t>
+  </si>
+  <si>
+    <t>333</t>
+  </si>
+  <si>
+    <t>29/09/2018 00:00:00</t>
+  </si>
+  <si>
+    <t>336</t>
+  </si>
+  <si>
+    <t>337</t>
+  </si>
+  <si>
+    <t>28/08/2019 00:00:00</t>
+  </si>
+  <si>
+    <t>338</t>
+  </si>
+  <si>
+    <t>11/03/2018 00:00:00</t>
+  </si>
+  <si>
+    <t>339</t>
+  </si>
+  <si>
+    <t>13/08/2020 00:00:00</t>
+  </si>
+  <si>
+    <t>340</t>
+  </si>
+  <si>
+    <t>05/08/2019 00:00:00</t>
+  </si>
+  <si>
+    <t>342</t>
+  </si>
+  <si>
+    <t>11/08/2020 00:00:00</t>
+  </si>
+  <si>
+    <t>343</t>
+  </si>
+  <si>
+    <t>18/07/2018 00:00:00</t>
+  </si>
+  <si>
+    <t>347</t>
+  </si>
+  <si>
+    <t>10/05/2018 00:00:00</t>
+  </si>
+  <si>
+    <t>349</t>
+  </si>
+  <si>
+    <t>16/04/2020 00:00:00</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>22/07/2018 00:00:00</t>
+  </si>
+  <si>
+    <t>353</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>03/10/2018 00:00:00</t>
+  </si>
+  <si>
+    <t>359</t>
+  </si>
+  <si>
+    <t>10/07/2018 00:00:00</t>
+  </si>
+  <si>
+    <t>360</t>
+  </si>
+  <si>
+    <t>13/07/2020 00:00:00</t>
+  </si>
+  <si>
+    <t>363</t>
+  </si>
+  <si>
+    <t>28/02/2019 00:00:00</t>
+  </si>
+  <si>
+    <t>365</t>
+  </si>
+  <si>
+    <t>366</t>
+  </si>
+  <si>
+    <t>03/07/2019 00:00:00</t>
+  </si>
+  <si>
+    <t>368</t>
+  </si>
+  <si>
+    <t>21/08/2018 00:00:00</t>
+  </si>
+  <si>
+    <t>370</t>
+  </si>
+  <si>
+    <t>26/06/2018 00:00:00</t>
+  </si>
+  <si>
+    <t>371</t>
+  </si>
+  <si>
+    <t>21/03/2018 00:00:00</t>
+  </si>
+  <si>
+    <t>377</t>
+  </si>
+  <si>
+    <t>12/11/2018 00:00:00</t>
+  </si>
+  <si>
+    <t>378</t>
+  </si>
+  <si>
+    <t>19/02/2019 00:00:00</t>
+  </si>
+  <si>
+    <t>379</t>
+  </si>
+  <si>
+    <t>23/11/2019 00:00:00</t>
+  </si>
+  <si>
+    <t>380</t>
+  </si>
+  <si>
+    <t>30/01/2019 00:00:00</t>
+  </si>
+  <si>
+    <t>381</t>
+  </si>
+  <si>
+    <t>27/01/2018 00:00:00</t>
+  </si>
+  <si>
+    <t>382</t>
+  </si>
+  <si>
+    <t>383</t>
+  </si>
+  <si>
+    <t>07/05/2018 00:00:00</t>
+  </si>
+  <si>
+    <t>384</t>
+  </si>
+  <si>
+    <t>25/08/2019 00:00:00</t>
+  </si>
+  <si>
+    <t>387</t>
+  </si>
+  <si>
+    <t>19/05/2018 00:00:00</t>
+  </si>
+  <si>
+    <t>390</t>
+  </si>
+  <si>
+    <t>28/03/2018 00:00:00</t>
+  </si>
+  <si>
+    <t>392</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>23/10/2020 00:00:00</t>
+  </si>
+  <si>
+    <t>393</t>
+  </si>
+  <si>
+    <t>12/04/2018 00:00:00</t>
+  </si>
+  <si>
+    <t>395</t>
+  </si>
+  <si>
+    <t>24/03/2019 00:00:00</t>
+  </si>
+  <si>
+    <t>396</t>
+  </si>
+  <si>
+    <t>21/04/2020 00:00:00</t>
+  </si>
+  <si>
+    <t>397</t>
+  </si>
+  <si>
+    <t>31/07/2019 00:00:00</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>05/12/2019 00:00:00</t>
+  </si>
+  <si>
+    <t>402</t>
+  </si>
+  <si>
+    <t>21/11/2019 00:00:00</t>
+  </si>
+  <si>
+    <t>403</t>
+  </si>
+  <si>
+    <t>17/12/2019 00:00:00</t>
+  </si>
+  <si>
+    <t>404</t>
+  </si>
+  <si>
+    <t>22/11/2020 00:00:00</t>
+  </si>
+  <si>
+    <t>408</t>
+  </si>
+  <si>
+    <t>16/12/2018 00:00:00</t>
+  </si>
+  <si>
+    <t>409</t>
+  </si>
+  <si>
+    <t>11/11/2018 00:00:00</t>
+  </si>
+  <si>
+    <t>413</t>
+  </si>
+  <si>
+    <t>15/11/2019 00:00:00</t>
+  </si>
+  <si>
+    <t>417</t>
+  </si>
+  <si>
+    <t>18/08/2019 00:00:00</t>
+  </si>
+  <si>
+    <t>418</t>
+  </si>
+  <si>
+    <t>27/06/2020 00:00:00</t>
+  </si>
+  <si>
+    <t>419</t>
+  </si>
+  <si>
+    <t>07/02/2020 00:00:00</t>
+  </si>
+  <si>
+    <t>420</t>
+  </si>
+  <si>
+    <t>13/04/2019 00:00:00</t>
+  </si>
+  <si>
+    <t>421</t>
+  </si>
+  <si>
+    <t>10/08/2019 00:00:00</t>
+  </si>
+  <si>
+    <t>424</t>
+  </si>
+  <si>
+    <t>04/04/2019 00:00:00</t>
+  </si>
+  <si>
+    <t>429</t>
+  </si>
+  <si>
+    <t>10/08/2020 00:00:00</t>
+  </si>
+  <si>
+    <t>430</t>
+  </si>
+  <si>
+    <t>16/07/2019 00:00:00</t>
+  </si>
+  <si>
+    <t>432</t>
+  </si>
+  <si>
+    <t>15/07/2020 00:00:00</t>
+  </si>
+  <si>
+    <t>434</t>
   </si>
   <si>
     <t>17/12/2020 00:00:00</t>
-  </si>
-  <si>
-    <t>02/10/2020 00:00:00</t>
-  </si>
-  <si>
-    <t>18/04/2020 00:00:00</t>
-  </si>
-  <si>
-    <t>17/11/2019 00:00:00</t>
-  </si>
-  <si>
-    <t>19/12/2018 00:00:00</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>03/06/2020 00:00:00</t>
-  </si>
-  <si>
-    <t>03/11/2018 00:00:00</t>
-  </si>
-  <si>
-    <t>19/08/2018 00:00:00</t>
-  </si>
-  <si>
-    <t>05/09/2020 00:00:00</t>
-  </si>
-  <si>
-    <t>26/03/2018 00:00:00</t>
-  </si>
-  <si>
-    <t>137</t>
-  </si>
-  <si>
-    <t>18/12/2020 00:00:00</t>
-  </si>
-  <si>
-    <t>10/11/2018 00:00:00</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>09/07/2020 00:00:00</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>18/12/2018 00:00:00</t>
-  </si>
-  <si>
-    <t>142</t>
-  </si>
-  <si>
-    <t>10/09/2018 00:00:00</t>
-  </si>
-  <si>
-    <t>14/03/2018 00:00:00</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>24/06/2018 00:00:00</t>
-  </si>
-  <si>
-    <t>26/12/2018 00:00:00</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>25/10/2020 00:00:00</t>
-  </si>
-  <si>
-    <t>14/09/2018 00:00:00</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>03/04/2019 00:00:00</t>
-  </si>
-  <si>
-    <t>13/03/2019 00:00:00</t>
-  </si>
-  <si>
-    <t>02/06/2020 00:00:00</t>
-  </si>
-  <si>
-    <t>10/06/2020 00:00:00</t>
-  </si>
-  <si>
-    <t>168</t>
-  </si>
-  <si>
-    <t>25/03/2020 00:00:00</t>
-  </si>
-  <si>
-    <t>18/07/2019 00:00:00</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>10/01/2021 00:00:00</t>
-  </si>
-  <si>
-    <t>06/11/2020 00:00:00</t>
-  </si>
-  <si>
-    <t>04/09/2020 00:00:00</t>
-  </si>
-  <si>
-    <t>15/09/2019 00:00:00</t>
-  </si>
-  <si>
-    <t>26/06/2020 00:00:00</t>
-  </si>
-  <si>
-    <t>181</t>
-  </si>
-  <si>
-    <t>21/05/2019 00:00:00</t>
-  </si>
-  <si>
-    <t>182</t>
-  </si>
-  <si>
-    <t>18/11/2020 00:00:00</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>184</t>
-  </si>
-  <si>
-    <t>15/05/2019 00:00:00</t>
-  </si>
-  <si>
-    <t>01/10/2018 00:00:00</t>
-  </si>
-  <si>
-    <t>01/06/2018 00:00:00</t>
-  </si>
-  <si>
-    <t>18/09/2020 00:00:00</t>
-  </si>
-  <si>
-    <t>08/06/2018 00:00:00</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>23/07/2018 00:00:00</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>26/10/2018 00:00:00</t>
-  </si>
-  <si>
-    <t>23/12/2020 00:00:00</t>
-  </si>
-  <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t>10/11/2019 00:00:00</t>
-  </si>
-  <si>
-    <t>203</t>
-  </si>
-  <si>
-    <t>26/12/2020 00:00:00</t>
-  </si>
-  <si>
-    <t>22/07/2020 00:00:00</t>
-  </si>
-  <si>
-    <t>322</t>
-  </si>
-  <si>
-    <t>16/05/2018 00:00:00</t>
-  </si>
-  <si>
-    <t>15/01/2020 00:00:00</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>12/12/2020 00:00:00</t>
-  </si>
-  <si>
-    <t>325</t>
-  </si>
-  <si>
-    <t>16/02/2018 00:00:00</t>
-  </si>
-  <si>
-    <t>326</t>
-  </si>
-  <si>
-    <t>08/04/2018 00:00:00</t>
-  </si>
-  <si>
-    <t>329</t>
-  </si>
-  <si>
-    <t>30/09/2018 00:00:00</t>
-  </si>
-  <si>
-    <t>332</t>
-  </si>
-  <si>
-    <t>25/04/2019 00:00:00</t>
-  </si>
-  <si>
-    <t>333</t>
-  </si>
-  <si>
-    <t>29/09/2018 00:00:00</t>
-  </si>
-  <si>
-    <t>336</t>
-  </si>
-  <si>
-    <t>337</t>
-  </si>
-  <si>
-    <t>28/08/2019 00:00:00</t>
-  </si>
-  <si>
-    <t>338</t>
-  </si>
-  <si>
-    <t>11/03/2018 00:00:00</t>
-  </si>
-  <si>
-    <t>339</t>
-  </si>
-  <si>
-    <t>13/08/2020 00:00:00</t>
-  </si>
-  <si>
-    <t>340</t>
-  </si>
-  <si>
-    <t>05/08/2019 00:00:00</t>
-  </si>
-  <si>
-    <t>342</t>
-  </si>
-  <si>
-    <t>11/08/2020 00:00:00</t>
-  </si>
-  <si>
-    <t>343</t>
-  </si>
-  <si>
-    <t>18/07/2018 00:00:00</t>
-  </si>
-  <si>
-    <t>347</t>
-  </si>
-  <si>
-    <t>10/05/2018 00:00:00</t>
-  </si>
-  <si>
-    <t>349</t>
-  </si>
-  <si>
-    <t>16/04/2020 00:00:00</t>
-  </si>
-  <si>
-    <t>350</t>
-  </si>
-  <si>
-    <t>22/07/2018 00:00:00</t>
-  </si>
-  <si>
-    <t>353</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>03/10/2018 00:00:00</t>
-  </si>
-  <si>
-    <t>359</t>
-  </si>
-  <si>
-    <t>10/07/2018 00:00:00</t>
-  </si>
-  <si>
-    <t>360</t>
-  </si>
-  <si>
-    <t>13/07/2020 00:00:00</t>
-  </si>
-  <si>
-    <t>363</t>
-  </si>
-  <si>
-    <t>28/02/2019 00:00:00</t>
-  </si>
-  <si>
-    <t>365</t>
-  </si>
-  <si>
-    <t>366</t>
-  </si>
-  <si>
-    <t>03/07/2019 00:00:00</t>
-  </si>
-  <si>
-    <t>368</t>
-  </si>
-  <si>
-    <t>21/08/2018 00:00:00</t>
-  </si>
-  <si>
-    <t>370</t>
-  </si>
-  <si>
-    <t>26/06/2018 00:00:00</t>
-  </si>
-  <si>
-    <t>371</t>
-  </si>
-  <si>
-    <t>21/03/2018 00:00:00</t>
-  </si>
-  <si>
-    <t>377</t>
-  </si>
-  <si>
-    <t>12/11/2018 00:00:00</t>
-  </si>
-  <si>
-    <t>378</t>
-  </si>
-  <si>
-    <t>19/02/2019 00:00:00</t>
-  </si>
-  <si>
-    <t>379</t>
-  </si>
-  <si>
-    <t>23/11/2019 00:00:00</t>
-  </si>
-  <si>
-    <t>380</t>
-  </si>
-  <si>
-    <t>30/01/2019 00:00:00</t>
-  </si>
-  <si>
-    <t>381</t>
-  </si>
-  <si>
-    <t>27/01/2018 00:00:00</t>
-  </si>
-  <si>
-    <t>382</t>
-  </si>
-  <si>
-    <t>383</t>
-  </si>
-  <si>
-    <t>07/05/2018 00:00:00</t>
-  </si>
-  <si>
-    <t>384</t>
-  </si>
-  <si>
-    <t>25/08/2019 00:00:00</t>
-  </si>
-  <si>
-    <t>387</t>
-  </si>
-  <si>
-    <t>19/05/2018 00:00:00</t>
-  </si>
-  <si>
-    <t>390</t>
-  </si>
-  <si>
-    <t>28/03/2018 00:00:00</t>
-  </si>
-  <si>
-    <t>392</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>23/10/2020 00:00:00</t>
-  </si>
-  <si>
-    <t>393</t>
-  </si>
-  <si>
-    <t>12/04/2018 00:00:00</t>
-  </si>
-  <si>
-    <t>395</t>
-  </si>
-  <si>
-    <t>24/03/2019 00:00:00</t>
-  </si>
-  <si>
-    <t>396</t>
-  </si>
-  <si>
-    <t>21/04/2020 00:00:00</t>
-  </si>
-  <si>
-    <t>397</t>
-  </si>
-  <si>
-    <t>31/07/2019 00:00:00</t>
-  </si>
-  <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>05/12/2019 00:00:00</t>
-  </si>
-  <si>
-    <t>402</t>
-  </si>
-  <si>
-    <t>21/11/2019 00:00:00</t>
-  </si>
-  <si>
-    <t>403</t>
-  </si>
-  <si>
-    <t>17/12/2019 00:00:00</t>
-  </si>
-  <si>
-    <t>404</t>
-  </si>
-  <si>
-    <t>22/11/2020 00:00:00</t>
-  </si>
-  <si>
-    <t>408</t>
-  </si>
-  <si>
-    <t>16/12/2018 00:00:00</t>
-  </si>
-  <si>
-    <t>409</t>
-  </si>
-  <si>
-    <t>11/11/2018 00:00:00</t>
-  </si>
-  <si>
-    <t>413</t>
-  </si>
-  <si>
-    <t>15/11/2019 00:00:00</t>
-  </si>
-  <si>
-    <t>417</t>
-  </si>
-  <si>
-    <t>18/08/2019 00:00:00</t>
-  </si>
-  <si>
-    <t>418</t>
-  </si>
-  <si>
-    <t>27/06/2020 00:00:00</t>
-  </si>
-  <si>
-    <t>419</t>
-  </si>
-  <si>
-    <t>07/02/2020 00:00:00</t>
-  </si>
-  <si>
-    <t>420</t>
-  </si>
-  <si>
-    <t>13/04/2019 00:00:00</t>
-  </si>
-  <si>
-    <t>421</t>
-  </si>
-  <si>
-    <t>10/08/2019 00:00:00</t>
-  </si>
-  <si>
-    <t>424</t>
-  </si>
-  <si>
-    <t>04/04/2019 00:00:00</t>
-  </si>
-  <si>
-    <t>429</t>
-  </si>
-  <si>
-    <t>10/08/2020 00:00:00</t>
-  </si>
-  <si>
-    <t>430</t>
-  </si>
-  <si>
-    <t>16/07/2019 00:00:00</t>
-  </si>
-  <si>
-    <t>432</t>
-  </si>
-  <si>
-    <t>15/07/2020 00:00:00</t>
-  </si>
-  <si>
-    <t>434</t>
   </si>
   <si>
     <t>436</t>
@@ -2857,7 +2827,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr/>
-  <dimension ref="A1:F106"/>
+  <dimension ref="A1:F105"/>
   <sheetViews>
     <sheetView view="normal" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -3860,27 +3830,27 @@
         <v>198</v>
       </c>
       <c r="D50" t="s">
-        <v>50</v>
+        <v>216</v>
       </c>
       <c r="E50" t="s">
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B51" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C51" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D51" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E51" t="s">
         <v>21</v>
@@ -3891,16 +3861,16 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B52" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C52" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D52" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E52" t="s">
         <v>10</v>
@@ -3911,36 +3881,36 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B53" t="s">
         <v>110</v>
       </c>
       <c r="C53" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D53" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E53" t="s">
         <v>21</v>
       </c>
       <c r="F53" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B54" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C54" t="s">
         <v>56</v>
       </c>
       <c r="D54" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E54" t="s">
         <v>21</v>
@@ -3951,36 +3921,36 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B55" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C55" t="s">
         <v>125</v>
       </c>
       <c r="D55" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E55" t="s">
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B56" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C56" t="s">
         <v>139</v>
       </c>
       <c r="D56" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E56" t="s">
         <v>10</v>
@@ -3991,16 +3961,16 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B57" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C57" t="s">
         <v>101</v>
       </c>
       <c r="D57" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E57" t="s">
         <v>21</v>
@@ -4011,16 +3981,16 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B58" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C58" t="s">
         <v>19</v>
       </c>
       <c r="D58" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E58" t="s">
         <v>21</v>
@@ -4031,16 +4001,16 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B59" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C59" t="s">
         <v>25</v>
       </c>
       <c r="D59" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E59" t="s">
         <v>10</v>
@@ -4051,16 +4021,16 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B60" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C60" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D60" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E60" t="s">
         <v>21</v>
@@ -4071,56 +4041,56 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B61" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C61" t="s">
         <v>184</v>
       </c>
       <c r="D61" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E61" t="s">
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B62" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C62" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D62" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E62" t="s">
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B63" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C63" t="s">
         <v>44</v>
       </c>
       <c r="D63" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E63" t="s">
         <v>21</v>
@@ -4131,56 +4101,56 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B64" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C64" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D64" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E64" t="s">
         <v>21</v>
       </c>
       <c r="F64" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B65" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C65" t="s">
         <v>142</v>
       </c>
       <c r="D65" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E65" t="s">
         <v>21</v>
       </c>
       <c r="F65" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B66" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C66" t="s">
         <v>193</v>
       </c>
       <c r="D66" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E66" t="s">
         <v>10</v>
@@ -4191,36 +4161,36 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B67" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C67" t="s">
         <v>118</v>
       </c>
       <c r="D67" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E67" t="s">
         <v>21</v>
       </c>
       <c r="F67" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B68" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C68" t="s">
         <v>80</v>
       </c>
       <c r="D68" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E68" t="s">
         <v>21</v>
@@ -4231,76 +4201,76 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B69" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C69" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D69" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E69" t="s">
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B70" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C70" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D70" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E70" t="s">
         <v>21</v>
       </c>
       <c r="F70" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B71" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C71" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D71" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E71" t="s">
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B72" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C72" t="s">
         <v>169</v>
       </c>
       <c r="D72" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E72" t="s">
         <v>10</v>
@@ -4311,16 +4281,16 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B73" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C73" t="s">
         <v>98</v>
       </c>
       <c r="D73" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E73" t="s">
         <v>10</v>
@@ -4331,56 +4301,56 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B74" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C74" t="s">
         <v>16</v>
       </c>
       <c r="D74" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E74" t="s">
         <v>21</v>
       </c>
       <c r="F74" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B75" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C75" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D75" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E75" t="s">
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B76" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C76" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D76" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E76" t="s">
         <v>21</v>
@@ -4391,16 +4361,16 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B77" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C77" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D77" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E77" t="s">
         <v>10</v>
@@ -4411,16 +4381,16 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B78" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C78" t="s">
         <v>49</v>
       </c>
       <c r="D78" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E78" t="s">
         <v>21</v>
@@ -4431,36 +4401,36 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B79" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C79" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D79" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E79" t="s">
         <v>21</v>
       </c>
       <c r="F79" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B80" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C80" t="s">
         <v>151</v>
       </c>
       <c r="D80" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E80" t="s">
         <v>10</v>
@@ -4471,16 +4441,16 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B81" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C81" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D81" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E81" t="s">
         <v>10</v>
@@ -4491,16 +4461,16 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B82" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C82" t="s">
         <v>32</v>
       </c>
       <c r="D82" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E82" t="s">
         <v>10</v>
@@ -4511,36 +4481,36 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B83" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C83" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D83" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E83" t="s">
         <v>21</v>
       </c>
       <c r="F83" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B84" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C84" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D84" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E84" t="s">
         <v>21</v>
@@ -4551,16 +4521,16 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B85" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C85" t="s">
         <v>11</v>
       </c>
       <c r="D85" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E85" t="s">
         <v>10</v>
@@ -4571,16 +4541,16 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B86" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C86" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D86" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E86" t="s">
         <v>10</v>
@@ -4591,36 +4561,36 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B87" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C87" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D87" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E87" t="s">
         <v>21</v>
       </c>
       <c r="F87" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B88" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C88" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D88" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E88" t="s">
         <v>21</v>
@@ -4631,16 +4601,16 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B89" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C89" t="s">
         <v>70</v>
       </c>
       <c r="D89" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E89" t="s">
         <v>21</v>
@@ -4651,16 +4621,16 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B90" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C90" t="s">
         <v>78</v>
       </c>
       <c r="D90" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E90" t="s">
         <v>10</v>
@@ -4671,16 +4641,16 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B91" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C91" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D91" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E91" t="s">
         <v>21</v>
@@ -4691,16 +4661,16 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B92" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C92" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D92" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E92" t="s">
         <v>10</v>
@@ -4711,16 +4681,16 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B93" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C93" t="s">
         <v>116</v>
       </c>
       <c r="D93" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E93" t="s">
         <v>10</v>
@@ -4731,16 +4701,16 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B94" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C94" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D94" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E94" t="s">
         <v>10</v>
@@ -4751,36 +4721,36 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B95" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C95" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D95" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E95" t="s">
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B96" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C96" t="s">
         <v>171</v>
       </c>
       <c r="D96" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E96" t="s">
         <v>21</v>
@@ -4791,53 +4761,53 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B97" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C97" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D97" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E97" t="s">
         <v>21</v>
       </c>
       <c r="F97" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B98" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C98" t="s">
         <v>133</v>
       </c>
       <c r="D98" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E98" t="s">
         <v>21</v>
       </c>
       <c r="F98" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B99" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C99" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D99" t="s">
         <v>165</v>
@@ -4846,41 +4816,41 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B100" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C100" t="s">
         <v>73</v>
       </c>
       <c r="D100" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E100" t="s">
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B101" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C101" t="s">
         <v>116</v>
       </c>
       <c r="D101" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E101" t="s">
         <v>21</v>
@@ -4891,36 +4861,36 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B102" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C102" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D102" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E102" t="s">
         <v>21</v>
       </c>
       <c r="F102" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B103" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C103" t="s">
         <v>113</v>
       </c>
       <c r="D103" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E103" t="s">
         <v>10</v>
@@ -4931,62 +4901,42 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B104" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C104" t="s">
         <v>98</v>
       </c>
       <c r="D104" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E104" t="s">
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B105" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C105" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D105" t="s">
-        <v>402</v>
+        <v>50</v>
       </c>
       <c r="E105" t="s">
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106" t="s">
         <v>406</v>
-      </c>
-      <c r="B106" t="s">
-        <v>407</v>
-      </c>
-      <c r="C106" t="s">
-        <v>408</v>
-      </c>
-      <c r="D106" t="s">
-        <v>409</v>
-      </c>
-      <c r="E106" t="s">
-        <v>410</v>
-      </c>
-      <c r="F106" t="s">
-        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -4999,7 +4949,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr/>
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView view="normal" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -5018,10 +4968,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5029,111 +4979,111 @@
         <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C2" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D2" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B3" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C3" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D3" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B4" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C4" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D4" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B5" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C5" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D5" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B6" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C6" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D6" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="D7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B8" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C8" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D8" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B9" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C9" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="D9" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5141,13 +5091,13 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C10" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="D10" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5155,13 +5105,13 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C11" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D11" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5169,41 +5119,41 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C12" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="D12" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B13" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C13" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="D13" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B14" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C14" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D14" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5211,27 +5161,27 @@
         <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C15" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="D15" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B16" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C16" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="D16" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5239,13 +5189,13 @@
         <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C17" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D17" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5253,13 +5203,13 @@
         <v>57</v>
       </c>
       <c r="B18" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C18" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D18" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5267,13 +5217,13 @@
         <v>76</v>
       </c>
       <c r="B19" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C19" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="D19" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -5281,55 +5231,55 @@
         <v>81</v>
       </c>
       <c r="B20" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C20" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="D20" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B21" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C21" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D21" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B22" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C22" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D22" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B23" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C23" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="D23" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -5337,13 +5287,13 @@
         <v>99</v>
       </c>
       <c r="B24" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C24" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D24" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -5351,13 +5301,13 @@
         <v>103</v>
       </c>
       <c r="B25" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C25" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="D25" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -5365,41 +5315,41 @@
         <v>107</v>
       </c>
       <c r="B26" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C26" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="D26" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B27" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C27" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D27" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B28" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C28" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D28" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -5407,27 +5357,27 @@
         <v>122</v>
       </c>
       <c r="B29" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C29" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D29" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B30" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C30" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="D30" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -5435,13 +5385,13 @@
         <v>131</v>
       </c>
       <c r="B31" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C31" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D31" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -5449,13 +5399,13 @@
         <v>135</v>
       </c>
       <c r="B32" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C32" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D32" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -5463,27 +5413,27 @@
         <v>159</v>
       </c>
       <c r="B33" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C33" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="D33" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B34" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C34" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="D34" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -5491,27 +5441,27 @@
         <v>172</v>
       </c>
       <c r="B35" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C35" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="D35" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B36" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C36" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="D36" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -5519,13 +5469,13 @@
         <v>190</v>
       </c>
       <c r="B37" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C37" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="D37" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -5533,27 +5483,13 @@
         <v>203</v>
       </c>
       <c r="B38" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="C38" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="D38" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>542</v>
-      </c>
-      <c r="B39" t="s">
-        <v>543</v>
-      </c>
-      <c r="C39" t="s">
-        <v>544</v>
-      </c>
-      <c r="D39" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
     </row>
   </sheetData>
@@ -5566,56 +5502,32 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView view="normal" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>550</v>
-      </c>
-      <c r="B2" t="s">
-        <v>406</v>
-      </c>
-      <c r="C2" t="s">
-        <v>542</v>
-      </c>
-      <c r="D2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E2" t="s">
-        <v>551</v>
-      </c>
-      <c r="F2" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
     </row>
   </sheetData>
@@ -5644,13 +5556,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5675,7 +5587,7 @@
         <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D3" t="s">
         <v>50</v>
@@ -5692,7 +5604,7 @@
         <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5706,7 +5618,7 @@
         <v>128</v>
       </c>
       <c r="D5" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5717,38 +5629,38 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D6" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D8" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5762,12 +5674,12 @@
         <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="B10" t="s">
         <v>28</v>
@@ -5776,7 +5688,7 @@
         <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5790,7 +5702,7 @@
         <v>184</v>
       </c>
       <c r="D11" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5804,7 +5716,7 @@
         <v>154</v>
       </c>
       <c r="D12" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5815,10 +5727,10 @@
         <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D13" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5829,15 +5741,15 @@
         <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D14" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="B15" t="s">
         <v>52</v>
@@ -5846,7 +5758,7 @@
         <v>151</v>
       </c>
       <c r="D15" t="s">
-        <v>567</v>
+        <v>544</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5857,10 +5769,10 @@
         <v>57</v>
       </c>
       <c r="C16" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D16" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5871,29 +5783,29 @@
         <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="D17" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="B18" t="s">
         <v>67</v>
       </c>
       <c r="C18" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="D18" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="B19" t="s">
         <v>71</v>
@@ -5902,7 +5814,7 @@
         <v>144</v>
       </c>
       <c r="D19" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -5916,21 +5828,21 @@
         <v>116</v>
       </c>
       <c r="D20" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="B21" t="s">
         <v>81</v>
       </c>
       <c r="C21" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D21" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -5944,26 +5856,26 @@
         <v>70</v>
       </c>
       <c r="D22" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="B23" t="s">
         <v>91</v>
       </c>
       <c r="C23" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D23" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B24" t="s">
         <v>95</v>
@@ -5972,7 +5884,7 @@
         <v>196</v>
       </c>
       <c r="D24" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -5986,12 +5898,12 @@
         <v>193</v>
       </c>
       <c r="D25" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="B26" t="s">
         <v>103</v>
@@ -6000,12 +5912,12 @@
         <v>196</v>
       </c>
       <c r="D26" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B27" t="s">
         <v>107</v>
@@ -6014,21 +5926,21 @@
         <v>49</v>
       </c>
       <c r="D27" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B28" t="s">
         <v>109</v>
       </c>
       <c r="C28" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D28" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -6039,24 +5951,24 @@
         <v>114</v>
       </c>
       <c r="C29" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D29" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="B30" t="s">
         <v>119</v>
       </c>
       <c r="C30" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D30" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -6067,24 +5979,24 @@
         <v>122</v>
       </c>
       <c r="C31" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D31" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B32" t="s">
         <v>126</v>
       </c>
       <c r="C32" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="D32" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -6098,7 +6010,7 @@
         <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -6112,7 +6024,7 @@
         <v>162</v>
       </c>
       <c r="D34" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -6123,10 +6035,10 @@
         <v>140</v>
       </c>
       <c r="C35" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D35" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -6137,38 +6049,38 @@
         <v>145</v>
       </c>
       <c r="C36" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D36" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="B37" t="s">
         <v>148</v>
       </c>
       <c r="C37" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D37" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="B38" t="s">
         <v>152</v>
       </c>
       <c r="C38" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D38" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -6179,29 +6091,29 @@
         <v>156</v>
       </c>
       <c r="C39" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="D39" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="B40" t="s">
         <v>159</v>
       </c>
       <c r="C40" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D40" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B41" t="s">
         <v>163</v>
@@ -6210,12 +6122,12 @@
         <v>111</v>
       </c>
       <c r="D41" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B42" t="s">
         <v>167</v>
@@ -6224,7 +6136,7 @@
         <v>88</v>
       </c>
       <c r="D42" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -6238,7 +6150,7 @@
         <v>75</v>
       </c>
       <c r="D43" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -6252,12 +6164,12 @@
         <v>151</v>
       </c>
       <c r="D44" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="B45" t="s">
         <v>178</v>
@@ -6266,7 +6178,7 @@
         <v>44</v>
       </c>
       <c r="D45" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -6280,21 +6192,21 @@
         <v>118</v>
       </c>
       <c r="D46" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="B47" t="s">
         <v>186</v>
       </c>
       <c r="C47" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="D47" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -6308,12 +6220,12 @@
         <v>19</v>
       </c>
       <c r="D48" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="B49" t="s">
         <v>194</v>
@@ -6322,12 +6234,12 @@
         <v>75</v>
       </c>
       <c r="D49" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="B50" t="s">
         <v>199</v>
@@ -6336,7 +6248,7 @@
         <v>137</v>
       </c>
       <c r="D50" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -6350,12 +6262,12 @@
         <v>32</v>
       </c>
       <c r="D51" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
       <c r="B52" t="s">
         <v>6</v>
@@ -6364,12 +6276,12 @@
         <v>166</v>
       </c>
       <c r="D52" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B53" t="s">
         <v>12</v>
@@ -6378,26 +6290,26 @@
         <v>93</v>
       </c>
       <c r="D53" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>406</v>
+        <v>610</v>
       </c>
       <c r="B54" t="s">
         <v>17</v>
       </c>
       <c r="C54" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="D54" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
       <c r="B55" t="s">
         <v>23</v>
@@ -6406,26 +6318,26 @@
         <v>205</v>
       </c>
       <c r="D55" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
       <c r="B56" t="s">
         <v>28</v>
       </c>
       <c r="C56" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D56" t="s">
-        <v>627</v>
+        <v>616</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
       <c r="B57" t="s">
         <v>33</v>
@@ -6434,12 +6346,12 @@
         <v>51</v>
       </c>
       <c r="D57" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="B58" t="s">
         <v>37</v>
@@ -6448,54 +6360,54 @@
         <v>118</v>
       </c>
       <c r="D58" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="B59" t="s">
         <v>42</v>
       </c>
       <c r="C59" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D59" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
       <c r="B60" t="s">
         <v>47</v>
       </c>
       <c r="C60" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D60" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>635</v>
+        <v>624</v>
       </c>
       <c r="B61" t="s">
         <v>52</v>
       </c>
       <c r="C61" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D61" t="s">
-        <v>636</v>
+        <v>625</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
       <c r="B62" t="s">
         <v>57</v>
@@ -6504,12 +6416,12 @@
         <v>75</v>
       </c>
       <c r="D62" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
       <c r="B63" t="s">
         <v>62</v>
@@ -6518,26 +6430,26 @@
         <v>36</v>
       </c>
       <c r="D63" t="s">
-        <v>640</v>
+        <v>629</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="B64" t="s">
         <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="D64" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
       <c r="B65" t="s">
         <v>71</v>
@@ -6546,54 +6458,54 @@
         <v>19</v>
       </c>
       <c r="D65" t="s">
-        <v>644</v>
+        <v>633</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="B66" t="s">
         <v>76</v>
       </c>
       <c r="C66" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D66" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="B67" t="s">
         <v>81</v>
       </c>
       <c r="C67" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D67" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="B68" t="s">
         <v>86</v>
       </c>
       <c r="C68" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="D68" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
       <c r="B69" t="s">
         <v>91</v>
@@ -6602,26 +6514,26 @@
         <v>184</v>
       </c>
       <c r="D69" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="B70" t="s">
         <v>95</v>
       </c>
       <c r="C70" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="D70" t="s">
-        <v>655</v>
+        <v>644</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>656</v>
+        <v>645</v>
       </c>
       <c r="B71" t="s">
         <v>99</v>
@@ -6630,12 +6542,12 @@
         <v>70</v>
       </c>
       <c r="D71" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>658</v>
+        <v>647</v>
       </c>
       <c r="B72" t="s">
         <v>103</v>
@@ -6644,12 +6556,12 @@
         <v>113</v>
       </c>
       <c r="D72" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>660</v>
+        <v>649</v>
       </c>
       <c r="B73" t="s">
         <v>107</v>
@@ -6658,26 +6570,26 @@
         <v>144</v>
       </c>
       <c r="D73" t="s">
-        <v>661</v>
+        <v>650</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>662</v>
+        <v>651</v>
       </c>
       <c r="B74" t="s">
         <v>109</v>
       </c>
       <c r="C74" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D74" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>663</v>
+        <v>652</v>
       </c>
       <c r="B75" t="s">
         <v>114</v>
@@ -6686,12 +6598,12 @@
         <v>73</v>
       </c>
       <c r="D75" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="B76" t="s">
         <v>119</v>
@@ -6700,40 +6612,40 @@
         <v>184</v>
       </c>
       <c r="D76" t="s">
-        <v>666</v>
+        <v>655</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
       <c r="B77" t="s">
         <v>122</v>
       </c>
       <c r="C77" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D77" t="s">
-        <v>668</v>
+        <v>657</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>669</v>
+        <v>658</v>
       </c>
       <c r="B78" t="s">
         <v>126</v>
       </c>
       <c r="C78" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D78" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>671</v>
+        <v>660</v>
       </c>
       <c r="B79" t="s">
         <v>131</v>
@@ -6742,12 +6654,12 @@
         <v>73</v>
       </c>
       <c r="D79" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>673</v>
+        <v>662</v>
       </c>
       <c r="B80" t="s">
         <v>135</v>
@@ -6756,12 +6668,12 @@
         <v>116</v>
       </c>
       <c r="D80" t="s">
-        <v>674</v>
+        <v>663</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
       <c r="B81" t="s">
         <v>140</v>
@@ -6770,12 +6682,12 @@
         <v>19</v>
       </c>
       <c r="D81" t="s">
-        <v>676</v>
+        <v>665</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>677</v>
+        <v>666</v>
       </c>
       <c r="B82" t="s">
         <v>145</v>
@@ -6784,12 +6696,12 @@
         <v>181</v>
       </c>
       <c r="D82" t="s">
-        <v>678</v>
+        <v>667</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>679</v>
+        <v>668</v>
       </c>
       <c r="B83" t="s">
         <v>148</v>
@@ -6798,12 +6710,12 @@
         <v>90</v>
       </c>
       <c r="D83" t="s">
-        <v>680</v>
+        <v>669</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>681</v>
+        <v>670</v>
       </c>
       <c r="B84" t="s">
         <v>152</v>
@@ -6812,12 +6724,12 @@
         <v>93</v>
       </c>
       <c r="D84" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
       <c r="B85" t="s">
         <v>156</v>
@@ -6826,12 +6738,12 @@
         <v>41</v>
       </c>
       <c r="D85" t="s">
-        <v>683</v>
+        <v>672</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="B86" t="s">
         <v>159</v>
@@ -6840,12 +6752,12 @@
         <v>51</v>
       </c>
       <c r="D86" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>686</v>
+        <v>675</v>
       </c>
       <c r="B87" t="s">
         <v>163</v>
@@ -6854,12 +6766,12 @@
         <v>139</v>
       </c>
       <c r="D87" t="s">
-        <v>687</v>
+        <v>676</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="B88" t="s">
         <v>167</v>
@@ -6868,40 +6780,40 @@
         <v>125</v>
       </c>
       <c r="D88" t="s">
-        <v>689</v>
+        <v>678</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
       <c r="B89" t="s">
         <v>172</v>
       </c>
       <c r="C89" t="s">
-        <v>691</v>
+        <v>680</v>
       </c>
       <c r="D89" t="s">
-        <v>692</v>
+        <v>681</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>693</v>
+        <v>682</v>
       </c>
       <c r="B90" t="s">
         <v>175</v>
       </c>
       <c r="C90" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D90" t="s">
-        <v>694</v>
+        <v>683</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>695</v>
+        <v>684</v>
       </c>
       <c r="B91" t="s">
         <v>178</v>
@@ -6910,12 +6822,12 @@
         <v>36</v>
       </c>
       <c r="D91" t="s">
-        <v>696</v>
+        <v>685</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>697</v>
+        <v>686</v>
       </c>
       <c r="B92" t="s">
         <v>182</v>
@@ -6924,12 +6836,12 @@
         <v>36</v>
       </c>
       <c r="D92" t="s">
-        <v>698</v>
+        <v>687</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
       <c r="B93" t="s">
         <v>186</v>
@@ -6938,40 +6850,40 @@
         <v>169</v>
       </c>
       <c r="D93" t="s">
-        <v>700</v>
+        <v>689</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>701</v>
+        <v>690</v>
       </c>
       <c r="B94" t="s">
         <v>190</v>
       </c>
       <c r="C94" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D94" t="s">
-        <v>702</v>
+        <v>691</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>703</v>
+        <v>692</v>
       </c>
       <c r="B95" t="s">
         <v>194</v>
       </c>
       <c r="C95" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D95" t="s">
-        <v>704</v>
+        <v>693</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>705</v>
+        <v>694</v>
       </c>
       <c r="B96" t="s">
         <v>199</v>
@@ -6980,26 +6892,26 @@
         <v>162</v>
       </c>
       <c r="D96" t="s">
-        <v>706</v>
+        <v>695</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>707</v>
+        <v>696</v>
       </c>
       <c r="B97" t="s">
         <v>203</v>
       </c>
       <c r="C97" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D97" t="s">
-        <v>708</v>
+        <v>697</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>709</v>
+        <v>698</v>
       </c>
       <c r="B98" t="s">
         <v>207</v>
@@ -7008,186 +6920,186 @@
         <v>49</v>
       </c>
       <c r="D98" t="s">
-        <v>710</v>
+        <v>699</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="B99" t="s">
         <v>211</v>
       </c>
       <c r="C99" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D99" t="s">
-        <v>712</v>
+        <v>701</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>713</v>
+        <v>702</v>
       </c>
       <c r="B100" t="s">
         <v>214</v>
       </c>
       <c r="C100" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D100" t="s">
-        <v>714</v>
+        <v>703</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>715</v>
+        <v>704</v>
       </c>
       <c r="B101" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C101" t="s">
         <v>142</v>
       </c>
       <c r="D101" t="s">
-        <v>716</v>
+        <v>705</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>717</v>
+        <v>706</v>
       </c>
       <c r="B102" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C102" t="s">
         <v>19</v>
       </c>
       <c r="D102" t="s">
-        <v>718</v>
+        <v>707</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>719</v>
+        <v>708</v>
       </c>
       <c r="B103" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C103" t="s">
         <v>39</v>
       </c>
       <c r="D103" t="s">
-        <v>720</v>
+        <v>709</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>721</v>
+        <v>710</v>
       </c>
       <c r="B104" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C104" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D104" t="s">
-        <v>722</v>
+        <v>711</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="B105" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C105" t="s">
         <v>118</v>
       </c>
       <c r="D105" t="s">
-        <v>724</v>
+        <v>713</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>725</v>
+        <v>714</v>
       </c>
       <c r="B106" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C106" t="s">
         <v>32</v>
       </c>
       <c r="D106" t="s">
-        <v>726</v>
+        <v>715</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>727</v>
+        <v>716</v>
       </c>
       <c r="B107" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C107" t="s">
         <v>54</v>
       </c>
       <c r="D107" t="s">
-        <v>728</v>
+        <v>717</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>729</v>
+        <v>718</v>
       </c>
       <c r="B108" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C108" t="s">
         <v>61</v>
       </c>
       <c r="D108" t="s">
-        <v>730</v>
+        <v>719</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>731</v>
+        <v>720</v>
       </c>
       <c r="B109" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C109" t="s">
         <v>70</v>
       </c>
       <c r="D109" t="s">
-        <v>732</v>
+        <v>721</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>733</v>
+        <v>722</v>
       </c>
       <c r="B110" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C110" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D110" t="s">
-        <v>555</v>
+        <v>723</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="B111" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C111" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="D111" t="s">
         <v>45</v>
@@ -7195,108 +7107,108 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="B112" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C112" t="s">
         <v>210</v>
       </c>
       <c r="D112" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="B113" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C113" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D113" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="B114" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C114" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D114" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="B115" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C115" t="s">
         <v>105</v>
       </c>
       <c r="D115" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="B116" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C116" t="s">
         <v>85</v>
       </c>
       <c r="D116" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="B117" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C117" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="D117" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="B118" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C118" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D118" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="B119" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C119" t="s">
         <v>137</v>
@@ -7307,506 +7219,506 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="B120" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C120" t="s">
         <v>98</v>
       </c>
       <c r="D120" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
       <c r="B121" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C121" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D121" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
       <c r="B122" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C122" t="s">
         <v>139</v>
       </c>
       <c r="D122" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
       <c r="B123" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C123" t="s">
         <v>83</v>
       </c>
       <c r="D123" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="B124" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C124" t="s">
         <v>11</v>
       </c>
       <c r="D124" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="B125" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C125" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="D125" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
       <c r="B126" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C126" t="s">
         <v>130</v>
       </c>
       <c r="D126" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
       <c r="B127" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C127" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="D127" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
       <c r="B128" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C128" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D128" t="s">
-        <v>767</v>
+        <v>757</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="B129" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C129" t="s">
-        <v>769</v>
+        <v>759</v>
       </c>
       <c r="D129" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
       <c r="B130" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C130" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D130" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
       <c r="B131" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C131" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D131" t="s">
-        <v>774</v>
+        <v>764</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="B132" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C132" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D132" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>777</v>
+        <v>767</v>
       </c>
       <c r="B133" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C133" t="s">
         <v>98</v>
       </c>
       <c r="D133" t="s">
-        <v>778</v>
+        <v>768</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>779</v>
+        <v>769</v>
       </c>
       <c r="B134" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C134" t="s">
         <v>61</v>
       </c>
       <c r="D134" t="s">
-        <v>780</v>
+        <v>770</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>781</v>
+        <v>771</v>
       </c>
       <c r="B135" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C135" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D135" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>783</v>
+        <v>773</v>
       </c>
       <c r="B136" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C136" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D136" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>784</v>
+        <v>774</v>
       </c>
       <c r="B137" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C137" t="s">
         <v>39</v>
       </c>
       <c r="D137" t="s">
-        <v>785</v>
+        <v>775</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>786</v>
+        <v>776</v>
       </c>
       <c r="B138" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C138" t="s">
         <v>116</v>
       </c>
       <c r="D138" t="s">
-        <v>787</v>
+        <v>777</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>788</v>
+        <v>778</v>
       </c>
       <c r="B139" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C139" t="s">
         <v>205</v>
       </c>
       <c r="D139" t="s">
-        <v>789</v>
+        <v>779</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>790</v>
+        <v>780</v>
       </c>
       <c r="B140" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C140" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D140" t="s">
-        <v>791</v>
+        <v>781</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>792</v>
+        <v>782</v>
       </c>
       <c r="B141" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C141" t="s">
         <v>118</v>
       </c>
       <c r="D141" t="s">
-        <v>793</v>
+        <v>783</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="B142" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C142" t="s">
         <v>51</v>
       </c>
       <c r="D142" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
       <c r="B143" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C143" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D143" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>797</v>
+        <v>787</v>
       </c>
       <c r="B144" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C144" t="s">
         <v>54</v>
       </c>
       <c r="D144" t="s">
-        <v>798</v>
+        <v>788</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
       <c r="B145" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C145" t="s">
         <v>25</v>
       </c>
       <c r="D145" t="s">
-        <v>800</v>
+        <v>790</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>801</v>
+        <v>791</v>
       </c>
       <c r="B146" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C146" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D146" t="s">
-        <v>802</v>
+        <v>792</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
       <c r="B147" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C147" t="s">
         <v>61</v>
       </c>
       <c r="D147" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>804</v>
+        <v>794</v>
       </c>
       <c r="B148" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C148" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="D148" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
       <c r="B149" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C149" t="s">
         <v>80</v>
       </c>
       <c r="D149" t="s">
-        <v>807</v>
+        <v>797</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>808</v>
+        <v>798</v>
       </c>
       <c r="B150" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C150" t="s">
         <v>85</v>
       </c>
       <c r="D150" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>809</v>
+        <v>799</v>
       </c>
       <c r="B151" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C151" t="s">
         <v>118</v>
       </c>
       <c r="D151" t="s">
-        <v>810</v>
+        <v>800</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>811</v>
+        <v>801</v>
       </c>
       <c r="B152" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C152" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D152" t="s">
-        <v>812</v>
+        <v>802</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>813</v>
+        <v>803</v>
       </c>
       <c r="B153" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C153" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D153" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>814</v>
+        <v>804</v>
       </c>
       <c r="B154" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C154" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D154" t="s">
-        <v>815</v>
+        <v>805</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>816</v>
+        <v>806</v>
       </c>
       <c r="B155" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C155" t="s">
         <v>51</v>
       </c>
       <c r="D155" t="s">
-        <v>817</v>
+        <v>807</v>
       </c>
     </row>
   </sheetData>
@@ -7835,13 +7747,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>818</v>
+        <v>808</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -7855,7 +7767,7 @@
         <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>819</v>
+        <v>809</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -7869,7 +7781,7 @@
         <v>184</v>
       </c>
       <c r="D3" t="s">
-        <v>820</v>
+        <v>810</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -7880,10 +7792,10 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D4" t="s">
-        <v>821</v>
+        <v>811</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -7897,7 +7809,7 @@
         <v>133</v>
       </c>
       <c r="D5" t="s">
-        <v>822</v>
+        <v>812</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -7911,7 +7823,7 @@
         <v>105</v>
       </c>
       <c r="D6" t="s">
-        <v>823</v>
+        <v>813</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -7925,7 +7837,7 @@
         <v>128</v>
       </c>
       <c r="D7" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -7939,7 +7851,7 @@
         <v>93</v>
       </c>
       <c r="D8" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -7953,7 +7865,7 @@
         <v>184</v>
       </c>
       <c r="D9" t="s">
-        <v>825</v>
+        <v>815</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -7967,7 +7879,7 @@
         <v>90</v>
       </c>
       <c r="D10" t="s">
-        <v>826</v>
+        <v>816</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -7978,10 +7890,10 @@
         <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D11" t="s">
-        <v>827</v>
+        <v>817</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -7995,7 +7907,7 @@
         <v>181</v>
       </c>
       <c r="D12" t="s">
-        <v>828</v>
+        <v>818</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -8009,7 +7921,7 @@
         <v>196</v>
       </c>
       <c r="D13" t="s">
-        <v>829</v>
+        <v>819</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -8023,7 +7935,7 @@
         <v>130</v>
       </c>
       <c r="D14" t="s">
-        <v>810</v>
+        <v>800</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -8034,10 +7946,10 @@
         <v>71</v>
       </c>
       <c r="C15" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="D15" t="s">
-        <v>830</v>
+        <v>820</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -8051,7 +7963,7 @@
         <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -8065,7 +7977,7 @@
         <v>113</v>
       </c>
       <c r="D17" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -8079,7 +7991,7 @@
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -8093,7 +8005,7 @@
         <v>54</v>
       </c>
       <c r="D19" t="s">
-        <v>833</v>
+        <v>823</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -8107,7 +8019,7 @@
         <v>193</v>
       </c>
       <c r="D20" t="s">
-        <v>834</v>
+        <v>824</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -8121,7 +8033,7 @@
         <v>105</v>
       </c>
       <c r="D21" t="s">
-        <v>835</v>
+        <v>825</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -8132,10 +8044,10 @@
         <v>103</v>
       </c>
       <c r="C22" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D22" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -8149,7 +8061,7 @@
         <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -8160,10 +8072,10 @@
         <v>109</v>
       </c>
       <c r="C24" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D24" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -8177,7 +8089,7 @@
         <v>90</v>
       </c>
       <c r="D25" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -8188,10 +8100,10 @@
         <v>119</v>
       </c>
       <c r="C26" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D26" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -8205,7 +8117,7 @@
         <v>41</v>
       </c>
       <c r="D27" t="s">
-        <v>837</v>
+        <v>827</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -8219,7 +8131,7 @@
         <v>59</v>
       </c>
       <c r="D28" t="s">
-        <v>838</v>
+        <v>828</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -8233,7 +8145,7 @@
         <v>83</v>
       </c>
       <c r="D29" t="s">
-        <v>839</v>
+        <v>829</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -8244,10 +8156,10 @@
         <v>135</v>
       </c>
       <c r="C30" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D30" t="s">
-        <v>840</v>
+        <v>830</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -8261,7 +8173,7 @@
         <v>116</v>
       </c>
       <c r="D31" t="s">
-        <v>841</v>
+        <v>831</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -8272,10 +8184,10 @@
         <v>145</v>
       </c>
       <c r="C32" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D32" t="s">
-        <v>842</v>
+        <v>832</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -8286,10 +8198,10 @@
         <v>148</v>
       </c>
       <c r="C33" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D33" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -8303,7 +8215,7 @@
         <v>154</v>
       </c>
       <c r="D34" t="s">
-        <v>844</v>
+        <v>834</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -8314,10 +8226,10 @@
         <v>156</v>
       </c>
       <c r="C35" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D35" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -8331,7 +8243,7 @@
         <v>44</v>
       </c>
       <c r="D36" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -8345,7 +8257,7 @@
         <v>133</v>
       </c>
       <c r="D37" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -8356,10 +8268,10 @@
         <v>167</v>
       </c>
       <c r="C38" t="s">
-        <v>848</v>
+        <v>838</v>
       </c>
       <c r="D38" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -8373,7 +8285,7 @@
         <v>59</v>
       </c>
       <c r="D39" t="s">
-        <v>850</v>
+        <v>840</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -8387,7 +8299,7 @@
         <v>41</v>
       </c>
       <c r="D40" t="s">
-        <v>774</v>
+        <v>764</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -8401,7 +8313,7 @@
         <v>181</v>
       </c>
       <c r="D41" t="s">
-        <v>851</v>
+        <v>841</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -8412,10 +8324,10 @@
         <v>182</v>
       </c>
       <c r="C42" t="s">
-        <v>691</v>
+        <v>680</v>
       </c>
       <c r="D42" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -8426,10 +8338,10 @@
         <v>186</v>
       </c>
       <c r="C43" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D43" t="s">
-        <v>852</v>
+        <v>842</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -8443,7 +8355,7 @@
         <v>130</v>
       </c>
       <c r="D44" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -8454,10 +8366,10 @@
         <v>194</v>
       </c>
       <c r="C45" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="D45" t="s">
-        <v>854</v>
+        <v>844</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -8471,7 +8383,7 @@
         <v>64</v>
       </c>
       <c r="D46" t="s">
-        <v>855</v>
+        <v>845</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -8485,7 +8397,7 @@
         <v>66</v>
       </c>
       <c r="D47" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -8496,10 +8408,10 @@
         <v>207</v>
       </c>
       <c r="C48" t="s">
-        <v>857</v>
+        <v>847</v>
       </c>
       <c r="D48" t="s">
-        <v>858</v>
+        <v>848</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -8513,7 +8425,7 @@
         <v>98</v>
       </c>
       <c r="D49" t="s">
-        <v>859</v>
+        <v>849</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -8527,183 +8439,183 @@
         <v>93</v>
       </c>
       <c r="D50" t="s">
-        <v>860</v>
+        <v>850</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B51" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C51" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="D51" t="s">
-        <v>844</v>
+        <v>834</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B52" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C52" t="s">
-        <v>857</v>
+        <v>847</v>
       </c>
       <c r="D52" t="s">
-        <v>861</v>
+        <v>851</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B53" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C53" t="s">
         <v>16</v>
       </c>
       <c r="D53" t="s">
-        <v>862</v>
+        <v>852</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B54" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C54" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D54" t="s">
-        <v>863</v>
+        <v>853</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B55" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C55" t="s">
         <v>98</v>
       </c>
       <c r="D55" t="s">
-        <v>864</v>
+        <v>854</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B56" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C56" t="s">
         <v>36</v>
       </c>
       <c r="D56" t="s">
-        <v>865</v>
+        <v>855</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B57" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C57" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D57" t="s">
-        <v>866</v>
+        <v>856</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B58" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C58" t="s">
         <v>56</v>
       </c>
       <c r="D58" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B59" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C59" t="s">
         <v>61</v>
       </c>
       <c r="D59" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B60" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C60" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D60" t="s">
-        <v>834</v>
+        <v>824</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B61" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C61" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D61" t="s">
-        <v>869</v>
+        <v>859</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B62" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C62" t="s">
         <v>139</v>
       </c>
       <c r="D62" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B63" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C63" t="s">
         <v>32</v>
@@ -8714,469 +8626,469 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B64" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C64" t="s">
         <v>184</v>
       </c>
       <c r="D64" t="s">
-        <v>870</v>
+        <v>860</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B65" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C65" t="s">
         <v>16</v>
       </c>
       <c r="D65" t="s">
-        <v>871</v>
+        <v>861</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B66" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C66" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D66" t="s">
-        <v>793</v>
+        <v>783</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B67" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C67" t="s">
         <v>151</v>
       </c>
       <c r="D67" t="s">
-        <v>834</v>
+        <v>824</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B68" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C68" t="s">
         <v>154</v>
       </c>
       <c r="D68" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B69" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C69" t="s">
         <v>184</v>
       </c>
       <c r="D69" t="s">
-        <v>873</v>
+        <v>863</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B70" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C70" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D70" t="s">
-        <v>874</v>
+        <v>864</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B71" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C71" t="s">
         <v>85</v>
       </c>
       <c r="D71" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B72" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C72" t="s">
         <v>19</v>
       </c>
       <c r="D72" t="s">
-        <v>875</v>
+        <v>865</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B73" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C73" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D73" t="s">
-        <v>876</v>
+        <v>866</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B74" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C74" t="s">
         <v>66</v>
       </c>
       <c r="D74" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B75" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C75" t="s">
         <v>49</v>
       </c>
       <c r="D75" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B76" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C76" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="D76" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B77" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C77" t="s">
         <v>36</v>
       </c>
       <c r="D77" t="s">
-        <v>879</v>
+        <v>869</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B78" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C78" t="s">
         <v>202</v>
       </c>
       <c r="D78" t="s">
-        <v>880</v>
+        <v>870</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B79" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C79" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D79" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B80" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C80" t="s">
         <v>44</v>
       </c>
       <c r="D80" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B81" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C81" t="s">
         <v>133</v>
       </c>
       <c r="D81" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B82" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C82" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D82" t="s">
-        <v>883</v>
+        <v>873</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B83" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C83" t="s">
         <v>59</v>
       </c>
       <c r="D83" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B84" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C84" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D84" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B85" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C85" t="s">
         <v>44</v>
       </c>
       <c r="D85" t="s">
-        <v>886</v>
+        <v>876</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B86" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C86" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D86" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B87" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C87" t="s">
         <v>25</v>
       </c>
       <c r="D87" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B88" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C88" t="s">
         <v>198</v>
       </c>
       <c r="D88" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B89" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C89" t="s">
-        <v>848</v>
+        <v>838</v>
       </c>
       <c r="D89" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B90" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C90" t="s">
         <v>46</v>
       </c>
       <c r="D90" t="s">
-        <v>890</v>
+        <v>880</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B91" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C91" t="s">
         <v>93</v>
       </c>
       <c r="D91" t="s">
-        <v>891</v>
+        <v>881</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B92" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C92" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D92" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B93" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C93" t="s">
         <v>16</v>
       </c>
       <c r="D93" t="s">
-        <v>892</v>
+        <v>882</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B94" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C94" t="s">
         <v>39</v>
       </c>
       <c r="D94" t="s">
-        <v>893</v>
+        <v>883</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B95" t="s">
         <v>6</v>
       </c>
       <c r="C95" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D95" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B96" t="s">
         <v>12</v>
       </c>
       <c r="C96" t="s">
-        <v>857</v>
+        <v>847</v>
       </c>
       <c r="D96" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B97" t="s">
         <v>17</v>
@@ -9185,7 +9097,7 @@
         <v>198</v>
       </c>
       <c r="D97" t="s">
-        <v>896</v>
+        <v>886</v>
       </c>
     </row>
   </sheetData>
@@ -9210,11 +9122,11 @@
   <sheetData>
     <row r="10" spans="1:1" ht="25" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>897</v>
+        <v>887</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="1eKKS8LOXwktLi+ShrZPtQqq3uPqb6andbOCknqWdpuCWsL1h5pI3pKP8ECuDpp+UWn3vZ9wr34T5W6tdC4UrQ==" saltValue="qsdn24eKA2MYubtCFvJlyw==" spinCount="100000" sheet="1" objects="1" scenarios="1" pivotTables="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="PhFd86Zhj/dylTn0tj1+oXHybk72TwTjzYk4arLng67gd1m/n8KPirAJtJ8F/ynS8PSRkMBGGH/T5cDshj7XCQ==" saltValue="Aw07yVOS36TryUl2dkxNSw==" spinCount="100000" sheet="1" objects="1" scenarios="1" pivotTables="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter scaleWithDoc="1" alignWithMargins="0" differentFirst="0" differentOddEven="0"/>
   <extLst/>
